--- a/abstract_doi_finder/input/inputtest.xlsx
+++ b/abstract_doi_finder/input/inputtest.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t xml:space="preserve">Researcher</t>
   </si>
@@ -73,780 +73,6 @@
   </si>
   <si>
     <t xml:space="preserve">Abstract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">193rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">198th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">199th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">206th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">207th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">209th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">214th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">217th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">218th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">226th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">227th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">229th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">232nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">233rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">236th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">241st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">242nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">243rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">244th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">246th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">248th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">249th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">251st Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252nd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">253rd Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">254th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">256th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">258th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">259th Author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260th Author</t>
   </si>
   <si>
     <t xml:space="preserve">Bothwell, Alfred</t>
@@ -1208,7 +434,7 @@
   <dimension ref="A2:M50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="1" sqref="L:P E24"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="1" sqref="HR31:HS41 E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1659,13 +885,13 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G52" activeCellId="1" sqref="L:P G52"/>
+      <selection pane="bottomLeft" activeCell="G52" activeCellId="1" sqref="HR31:HS41 G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8"/>
@@ -1714,7 +940,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="12.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="1" width="14.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="7.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="8.26"/>
@@ -6826,7 +6052,7 @@
   <dimension ref="A1:JQ165"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="L:P"/>
+      <selection pane="topLeft" activeCell="HS31" activeCellId="0" sqref="HR31:HS41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6873,790 +6099,272 @@
       <c r="N1" s="8"/>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="10"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="10"/>
+      <c r="BP1" s="10"/>
+      <c r="BQ1" s="10"/>
+      <c r="BR1" s="10"/>
+      <c r="BS1" s="10"/>
+      <c r="BT1" s="10"/>
+      <c r="BU1" s="10"/>
+      <c r="BV1" s="10"/>
+      <c r="BW1" s="10"/>
+      <c r="BX1" s="10"/>
+      <c r="BY1" s="10"/>
+      <c r="BZ1" s="10"/>
+      <c r="CA1" s="10"/>
+      <c r="CB1" s="10"/>
+      <c r="CC1" s="10"/>
+      <c r="CD1" s="10"/>
+      <c r="CE1" s="10"/>
+      <c r="CF1" s="10"/>
+      <c r="CG1" s="10"/>
+      <c r="CH1" s="10"/>
+      <c r="CI1" s="10"/>
+      <c r="CJ1" s="10"/>
+      <c r="CK1" s="10"/>
+      <c r="CL1" s="10"/>
+      <c r="CM1" s="10"/>
+      <c r="CN1" s="10"/>
+      <c r="CO1" s="10"/>
+      <c r="CP1" s="10"/>
+      <c r="CQ1" s="10"/>
+      <c r="CR1" s="10"/>
+      <c r="CS1" s="10"/>
+      <c r="CT1" s="10"/>
+      <c r="CU1" s="10"/>
+      <c r="CV1" s="10"/>
+      <c r="CW1" s="10"/>
+      <c r="CX1" s="10"/>
+      <c r="CY1" s="10"/>
+      <c r="CZ1" s="10"/>
+      <c r="DA1" s="10"/>
+      <c r="DB1" s="10"/>
+      <c r="DC1" s="10"/>
+      <c r="DD1" s="10"/>
+      <c r="DE1" s="10"/>
+      <c r="DF1" s="10"/>
+      <c r="DG1" s="10"/>
+      <c r="DH1" s="10"/>
+      <c r="DI1" s="10"/>
+      <c r="DJ1" s="10"/>
+      <c r="DK1" s="10"/>
+      <c r="DL1" s="10"/>
+      <c r="DM1" s="10"/>
+      <c r="DN1" s="10"/>
+      <c r="DO1" s="10"/>
+      <c r="DP1" s="10"/>
+      <c r="DQ1" s="10"/>
+      <c r="DR1" s="10"/>
+      <c r="DS1" s="10"/>
+      <c r="DT1" s="10"/>
+      <c r="DU1" s="10"/>
+      <c r="DV1" s="10"/>
+      <c r="DW1" s="10"/>
+      <c r="DX1" s="10"/>
+      <c r="DY1" s="10"/>
+      <c r="DZ1" s="10"/>
+      <c r="EA1" s="10"/>
+      <c r="EB1" s="10"/>
+      <c r="EC1" s="10"/>
+      <c r="ED1" s="10"/>
+      <c r="EE1" s="10"/>
+      <c r="EF1" s="10"/>
+      <c r="EG1" s="10"/>
+      <c r="EH1" s="10"/>
+      <c r="EI1" s="10"/>
+      <c r="EJ1" s="10"/>
+      <c r="EK1" s="10"/>
+      <c r="EL1" s="10"/>
+      <c r="EM1" s="10"/>
+      <c r="EN1" s="10"/>
+      <c r="EO1" s="10"/>
+      <c r="EP1" s="10"/>
+      <c r="EQ1" s="10"/>
+      <c r="ER1" s="10"/>
+      <c r="ES1" s="10"/>
+      <c r="ET1" s="10"/>
+      <c r="EU1" s="10"/>
+      <c r="EV1" s="10"/>
+      <c r="EW1" s="10"/>
+      <c r="EX1" s="10"/>
+      <c r="EY1" s="10"/>
+      <c r="EZ1" s="10"/>
+      <c r="FA1" s="10"/>
+      <c r="FB1" s="10"/>
+      <c r="FC1" s="10"/>
+      <c r="FD1" s="10"/>
+      <c r="FE1" s="10"/>
+      <c r="FF1" s="10"/>
+      <c r="FG1" s="10"/>
+      <c r="FH1" s="10"/>
+      <c r="FI1" s="10"/>
+      <c r="FJ1" s="10"/>
+      <c r="FK1" s="10"/>
+      <c r="FL1" s="10"/>
+      <c r="FM1" s="10"/>
+      <c r="FN1" s="10"/>
+      <c r="FO1" s="10"/>
+      <c r="FP1" s="10"/>
+      <c r="FQ1" s="10"/>
+      <c r="FR1" s="10"/>
+      <c r="FS1" s="10"/>
+      <c r="FT1" s="10"/>
+      <c r="FU1" s="10"/>
+      <c r="FV1" s="10"/>
+      <c r="FW1" s="10"/>
+      <c r="FX1" s="10"/>
+      <c r="FY1" s="10"/>
+      <c r="FZ1" s="10"/>
+      <c r="GA1" s="10"/>
+      <c r="GB1" s="10"/>
+      <c r="GC1" s="10"/>
+      <c r="GD1" s="10"/>
+      <c r="GE1" s="10"/>
+      <c r="GF1" s="10"/>
+      <c r="GG1" s="10"/>
+      <c r="GH1" s="10"/>
+      <c r="GI1" s="10"/>
+      <c r="GJ1" s="10"/>
+      <c r="GK1" s="10"/>
+      <c r="GL1" s="10"/>
+      <c r="GM1" s="10"/>
+      <c r="GN1" s="10"/>
+      <c r="GO1" s="10"/>
+      <c r="GP1" s="10"/>
+      <c r="GQ1" s="10"/>
+      <c r="GR1" s="10"/>
+      <c r="GS1" s="10"/>
+      <c r="GT1" s="10"/>
+      <c r="GU1" s="10"/>
+      <c r="GV1" s="10"/>
+      <c r="GW1" s="10"/>
+      <c r="GX1" s="10"/>
+      <c r="GY1" s="10"/>
+      <c r="GZ1" s="10"/>
+      <c r="HA1" s="10"/>
+      <c r="HB1" s="10"/>
+      <c r="HC1" s="10"/>
+      <c r="HD1" s="10"/>
+      <c r="HE1" s="10"/>
+      <c r="HF1" s="10"/>
+      <c r="HG1" s="10"/>
+      <c r="HH1" s="10"/>
+      <c r="HI1" s="10"/>
+      <c r="HJ1" s="10"/>
+      <c r="HK1" s="10"/>
+      <c r="HL1" s="10"/>
+      <c r="HM1" s="10"/>
+      <c r="HN1" s="10"/>
+      <c r="HO1" s="10"/>
+      <c r="HP1" s="10"/>
+      <c r="HQ1" s="10"/>
+      <c r="HR1" s="10"/>
+      <c r="HS1" s="10"/>
+      <c r="HT1" s="10"/>
+      <c r="HU1" s="10"/>
+      <c r="HV1" s="10"/>
+      <c r="HW1" s="10"/>
+      <c r="HX1" s="10"/>
+      <c r="HY1" s="10"/>
+      <c r="HZ1" s="10"/>
+      <c r="IA1" s="10"/>
+      <c r="IB1" s="10"/>
+      <c r="IC1" s="10"/>
+      <c r="ID1" s="10"/>
+      <c r="IE1" s="10"/>
+      <c r="IF1" s="10"/>
+      <c r="IG1" s="10"/>
+      <c r="IH1" s="10"/>
+      <c r="II1" s="10"/>
+      <c r="IJ1" s="10"/>
+      <c r="IK1" s="10"/>
+      <c r="IL1" s="10"/>
+      <c r="IM1" s="10"/>
+      <c r="IN1" s="10"/>
+      <c r="IO1" s="10"/>
+      <c r="IP1" s="10"/>
+      <c r="IQ1" s="10"/>
+      <c r="IR1" s="10"/>
+      <c r="IS1" s="10"/>
+      <c r="IT1" s="10"/>
+      <c r="IU1" s="10"/>
+      <c r="IV1" s="10"/>
+      <c r="IW1" s="10"/>
+      <c r="IX1" s="10"/>
+      <c r="IY1" s="10"/>
+      <c r="IZ1" s="10"/>
+      <c r="JA1" s="10"/>
+      <c r="JB1" s="10"/>
+      <c r="JC1" s="10"/>
+      <c r="JD1" s="10"/>
+      <c r="JE1" s="10"/>
+      <c r="JF1" s="10"/>
+      <c r="JG1" s="10"/>
+      <c r="JH1" s="10"/>
+      <c r="JI1" s="10"/>
+      <c r="JJ1" s="10"/>
+      <c r="JK1" s="10"/>
+      <c r="JL1" s="10"/>
+      <c r="JM1" s="10"/>
+      <c r="JN1" s="10"/>
+      <c r="JO1" s="10"/>
+    </row>
+    <row r="2" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AX1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="BB1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="BC1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="BG1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="BH1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="BI1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="BL1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="BN1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="BO1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="BP1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="BQ1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="BR1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="BT1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="BU1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BV1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="BW1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="BX1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="BY1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="BZ1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="CA1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="CB1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="CC1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="CD1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="CE1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="CF1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="CG1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="CH1" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="CI1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="CJ1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="CK1" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="CL1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="CM1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="CN1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="CO1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="CP1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="CQ1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="CR1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="CS1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="CT1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="CU1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="CV1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="CW1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="CX1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="CY1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="CZ1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="DA1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="DB1" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="DC1" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="DD1" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="DE1" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="DF1" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="DG1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="DH1" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="DI1" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="DJ1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="DK1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="DL1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="DM1" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="DN1" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="DO1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="DP1" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="DQ1" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="DR1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="DS1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="DT1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="DU1" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="DV1" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="DW1" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="DX1" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="DY1" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="DZ1" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="EA1" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="EB1" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="EC1" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="ED1" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="EE1" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="EF1" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="EG1" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="EH1" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="EI1" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="EJ1" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="EK1" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="EL1" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="EM1" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="EN1" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="EO1" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="EP1" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="EQ1" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="ER1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="ES1" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="ET1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="EU1" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="EV1" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="EW1" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="EX1" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="EY1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="EZ1" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="FA1" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="FB1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="FC1" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="FD1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="FE1" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="FF1" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="FG1" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="FH1" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="FI1" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="FJ1" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="FK1" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="FL1" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="FM1" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="FN1" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="FO1" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="FP1" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="FQ1" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="FR1" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="FS1" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="FT1" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="FU1" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="FV1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="FW1" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="FX1" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="FY1" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="FZ1" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="GA1" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="GB1" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="GC1" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="GD1" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="GE1" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="GF1" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="GG1" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="GH1" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="GI1" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="GJ1" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="GK1" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="GL1" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="GM1" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="GN1" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="GO1" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="GP1" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="GQ1" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="GR1" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="GS1" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="GT1" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="GU1" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="GV1" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="GW1" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="GX1" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="GY1" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="GZ1" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="HA1" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="HB1" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="HC1" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="HD1" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="HE1" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="HF1" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="HG1" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="HH1" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="HI1" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="HJ1" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="HK1" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="HL1" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="HM1" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="HN1" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="HO1" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="HP1" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="HQ1" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="HR1" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="HS1" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="HT1" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="HU1" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="HV1" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="HW1" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="HX1" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="HY1" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="HZ1" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="IA1" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="IB1" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="IC1" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="ID1" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="IE1" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="IF1" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="IG1" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="IH1" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="II1" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="IJ1" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="IK1" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="IL1" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="IM1" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="IN1" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="IO1" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="IP1" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="IQ1" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="IR1" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="IS1" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="IT1" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="IU1" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="IV1" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="IW1" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="IX1" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="IY1" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="IZ1" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="JA1" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="JB1" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="JC1" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="JD1" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="JE1" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="JF1" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="JG1" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="JH1" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="JI1" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="JJ1" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="JK1" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="JL1" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="JM1" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="JN1" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="JO1" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>1975</v>
@@ -7671,16 +6379,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>271</v>
+        <v>13</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>272</v>
+        <v>14</v>
       </c>
       <c r="I2" s="13" t="n">
         <v>1975</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="13"/>
@@ -9201,10 +7909,10 @@
       <c r="M103" s="13"/>
       <c r="N103" s="13"/>
       <c r="AB103" s="12" t="s">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="AC103" s="12" t="s">
-        <v>275</v>
+        <v>17</v>
       </c>
       <c r="JP103" s="1"/>
       <c r="JQ103" s="1"/>
@@ -9687,16 +8395,16 @@
       <c r="M135" s="13"/>
       <c r="N135" s="13"/>
       <c r="AB135" s="12" t="s">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="AC135" s="12" t="s">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="AD135" s="12" t="s">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="AE135" s="12" t="s">
-        <v>279</v>
+        <v>21</v>
       </c>
       <c r="JP135" s="1"/>
       <c r="JQ135" s="1"/>
@@ -9729,7 +8437,7 @@
       <c r="M137" s="13"/>
       <c r="N137" s="13"/>
       <c r="AB137" s="12" t="s">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="JP137" s="1"/>
       <c r="JQ137" s="1"/>
@@ -9897,28 +8605,28 @@
       <c r="M148" s="13"/>
       <c r="N148" s="13"/>
       <c r="AB148" s="12" t="s">
-        <v>281</v>
+        <v>23</v>
       </c>
       <c r="AC148" s="12" t="s">
-        <v>282</v>
+        <v>24</v>
       </c>
       <c r="AD148" s="12" t="s">
-        <v>283</v>
+        <v>25</v>
       </c>
       <c r="AE148" s="12" t="s">
-        <v>284</v>
+        <v>26</v>
       </c>
       <c r="AF148" s="12" t="s">
-        <v>285</v>
+        <v>27</v>
       </c>
       <c r="AG148" s="12" t="s">
-        <v>286</v>
+        <v>28</v>
       </c>
       <c r="AH148" s="12" t="s">
-        <v>287</v>
+        <v>29</v>
       </c>
       <c r="AI148" s="12" t="s">
-        <v>288</v>
+        <v>30</v>
       </c>
       <c r="JP148" s="1"/>
       <c r="JQ148" s="1"/>
@@ -9996,22 +8704,22 @@
       <c r="M153" s="13"/>
       <c r="N153" s="13"/>
       <c r="AB153" s="12" t="s">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="AC153" s="12" t="s">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="AD153" s="12" t="s">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="AE153" s="12" t="s">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="AF153" s="12" t="s">
-        <v>293</v>
+        <v>35</v>
       </c>
       <c r="AG153" s="12" t="s">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="JP153" s="1"/>
       <c r="JQ153" s="1"/>
@@ -10149,16 +8857,16 @@
       <c r="M162" s="13"/>
       <c r="N162" s="13"/>
       <c r="AB162" s="12" t="s">
-        <v>294</v>
+        <v>36</v>
       </c>
       <c r="AC162" s="12" t="s">
-        <v>295</v>
+        <v>37</v>
       </c>
       <c r="AD162" s="12" t="s">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="AE162" s="12" t="s">
-        <v>297</v>
+        <v>39</v>
       </c>
       <c r="JP162" s="1"/>
       <c r="JQ162" s="1"/>

--- a/abstract_doi_finder/input/inputtest.xlsx
+++ b/abstract_doi_finder/input/inputtest.xlsx
@@ -439,9 +439,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.66"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="22.26" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="20.13" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="10.66" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="2" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -890,106 +890,106 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="1" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="9.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="11.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="10.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="8.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="13.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="33" style="1" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="12.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="12.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="12.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="13.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="40" style="1" width="10.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="10.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="12.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="47" style="1" width="12.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="13.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="13.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="14.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="13.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="13.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="13.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="1" width="14.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="7.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="7.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="8.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="1" width="9.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="1" width="7.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="1" width="13.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="74" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="1" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="1" width="11.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="1" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="1" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="82" style="1" width="11.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="1" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="1" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="1" width="8.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="1" width="12.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="1" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="1" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="90" min="90" style="1" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="91" style="1" width="12.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="1" width="12.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="93" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="94" style="1" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="95" min="95" style="1" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="96" min="96" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="97" min="97" style="1" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="98" style="1" width="13.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="99" style="1" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="1" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="1" width="12.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="102" min="102" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="103" style="1" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="104" min="104" style="1" width="10.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="105" min="105" style="1" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="106" min="106" style="1" width="11.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="107" min="107" style="1" width="10.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="108" min="108" style="1" width="11.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="109" min="109" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="110" min="110" style="1" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="113" min="111" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="114" min="114" style="1" width="12.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="115" min="115" style="1" width="11.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="122" min="116" style="1" width="12.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="123" min="123" style="1" width="13.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="124" min="124" style="1" width="11.73"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="125" style="3" width="9"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="27.61" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="7.16" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="7.4" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="6.73" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="1" width="8.0" collapsed="true" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="1" width="12.73" collapsed="true" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="1" width="11.0" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="9.86" collapsed="true" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="1" width="11.0" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="1" width="14.26" collapsed="true" outlineLevel="0"/>
+    <col min="11" max="12" customWidth="true" hidden="false" style="1" width="9.86" collapsed="true" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="1" width="10.13" collapsed="true" outlineLevel="0"/>
+    <col min="14" max="16" customWidth="true" hidden="false" style="1" width="10.85" collapsed="true" outlineLevel="0"/>
+    <col min="17" max="17" customWidth="true" hidden="false" style="1" width="11.26" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="9.86" collapsed="true" outlineLevel="0"/>
+    <col min="19" max="19" customWidth="true" hidden="false" style="1" width="11.73" collapsed="true" outlineLevel="0"/>
+    <col min="20" max="20" customWidth="true" hidden="false" style="1" width="10.13" collapsed="true" outlineLevel="0"/>
+    <col min="21" max="22" customWidth="true" hidden="false" style="1" width="11.0" collapsed="true" outlineLevel="0"/>
+    <col min="23" max="23" customWidth="true" hidden="false" style="1" width="11.58" collapsed="true" outlineLevel="0"/>
+    <col min="24" max="24" customWidth="true" hidden="false" style="1" width="11.12" collapsed="true" outlineLevel="0"/>
+    <col min="25" max="25" customWidth="true" hidden="false" style="1" width="11.0" collapsed="true" outlineLevel="0"/>
+    <col min="27" max="27" customWidth="true" hidden="false" style="1" width="10.85" collapsed="true" outlineLevel="0"/>
+    <col min="28" max="28" customWidth="true" hidden="false" style="1" width="8.73" collapsed="true" outlineLevel="0"/>
+    <col min="29" max="29" customWidth="true" hidden="false" style="1" width="11.12" collapsed="true" outlineLevel="0"/>
+    <col min="30" max="30" customWidth="true" hidden="false" style="1" width="10.0" collapsed="true" outlineLevel="0"/>
+    <col min="31" max="31" customWidth="true" hidden="false" style="1" width="11.0" collapsed="true" outlineLevel="0"/>
+    <col min="32" max="32" customWidth="true" hidden="false" style="1" width="13.15" collapsed="true" outlineLevel="0"/>
+    <col min="33" max="34" customWidth="true" hidden="false" style="1" width="12.15" collapsed="true" outlineLevel="0"/>
+    <col min="35" max="35" customWidth="true" hidden="false" style="1" width="12.26" collapsed="true" outlineLevel="0"/>
+    <col min="36" max="36" customWidth="true" hidden="false" style="1" width="12.61" collapsed="true" outlineLevel="0"/>
+    <col min="37" max="37" customWidth="true" hidden="false" style="1" width="12.4" collapsed="true" outlineLevel="0"/>
+    <col min="38" max="38" customWidth="true" hidden="false" style="1" width="12.88" collapsed="true" outlineLevel="0"/>
+    <col min="39" max="39" customWidth="true" hidden="false" style="1" width="13.73" collapsed="true" outlineLevel="0"/>
+    <col min="40" max="42" customWidth="true" hidden="false" style="1" width="10.26" collapsed="true" outlineLevel="0"/>
+    <col min="44" max="44" customWidth="true" hidden="false" style="1" width="10.13" collapsed="true" outlineLevel="0"/>
+    <col min="45" max="45" customWidth="true" hidden="false" style="1" width="12.61" collapsed="true" outlineLevel="0"/>
+    <col min="46" max="46" customWidth="true" hidden="false" style="1" width="10.73" collapsed="true" outlineLevel="0"/>
+    <col min="47" max="48" customWidth="true" hidden="false" style="1" width="12.61" collapsed="true" outlineLevel="0"/>
+    <col min="51" max="51" customWidth="true" hidden="false" style="1" width="13.87" collapsed="true" outlineLevel="0"/>
+    <col min="52" max="52" customWidth="true" hidden="false" style="1" width="13.6" collapsed="true" outlineLevel="0"/>
+    <col min="53" max="53" customWidth="true" hidden="false" style="1" width="12.88" collapsed="true" outlineLevel="0"/>
+    <col min="54" max="54" customWidth="true" hidden="false" style="1" width="14.26" collapsed="true" outlineLevel="0"/>
+    <col min="55" max="55" customWidth="true" hidden="false" style="1" width="13.26" collapsed="true" outlineLevel="0"/>
+    <col min="56" max="56" customWidth="true" hidden="false" style="1" width="13.73" collapsed="true" outlineLevel="0"/>
+    <col min="57" max="58" customWidth="true" hidden="false" style="1" width="14.0" collapsed="true" outlineLevel="0"/>
+    <col min="59" max="59" customWidth="true" hidden="false" style="1" width="13.6" collapsed="true" outlineLevel="0"/>
+    <col min="60" max="60" customWidth="true" hidden="false" style="1" width="11.85" collapsed="true" outlineLevel="0"/>
+    <col min="61" max="61" customWidth="true" hidden="false" style="1" width="11.0" collapsed="true" outlineLevel="0"/>
+    <col min="62" max="62" customWidth="true" hidden="false" style="1" width="12.88" collapsed="true" outlineLevel="0"/>
+    <col min="63" max="63" customWidth="true" hidden="false" style="1" width="14.26" collapsed="true" outlineLevel="0"/>
+    <col min="64" max="64" customWidth="true" hidden="false" style="1" width="7.16" collapsed="true" outlineLevel="0"/>
+    <col min="65" max="65" customWidth="true" hidden="false" style="1" width="7.4" collapsed="true" outlineLevel="0"/>
+    <col min="66" max="66" customWidth="true" hidden="false" style="1" width="6.85" collapsed="true" outlineLevel="0"/>
+    <col min="67" max="67" customWidth="true" hidden="false" style="1" width="8.26" collapsed="true" outlineLevel="0"/>
+    <col min="69" max="69" customWidth="true" hidden="false" style="1" width="9.6" collapsed="true" outlineLevel="0"/>
+    <col min="70" max="70" customWidth="true" hidden="false" style="1" width="11.0" collapsed="true" outlineLevel="0"/>
+    <col min="71" max="71" customWidth="true" hidden="false" style="1" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="72" max="72" customWidth="true" hidden="false" style="1" width="7.73" collapsed="true" outlineLevel="0"/>
+    <col min="73" max="73" customWidth="true" hidden="false" style="1" width="13.73" collapsed="true" outlineLevel="0"/>
+    <col min="74" max="75" customWidth="true" hidden="false" style="1" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="76" max="76" customWidth="true" hidden="false" style="1" width="11.58" collapsed="true" outlineLevel="0"/>
+    <col min="77" max="77" customWidth="true" hidden="false" style="1" width="11.73" collapsed="true" outlineLevel="0"/>
+    <col min="78" max="78" customWidth="true" hidden="false" style="1" width="11.39" collapsed="true" outlineLevel="0"/>
+    <col min="79" max="79" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
+    <col min="80" max="80" customWidth="true" hidden="false" style="1" width="10.73" collapsed="true" outlineLevel="0"/>
+    <col min="82" max="83" customWidth="true" hidden="false" style="1" width="11.73" collapsed="true" outlineLevel="0"/>
+    <col min="84" max="84" customWidth="true" hidden="false" style="1" width="11.12" collapsed="true" outlineLevel="0"/>
+    <col min="85" max="85" customWidth="true" hidden="false" style="1" width="11.39" collapsed="true" outlineLevel="0"/>
+    <col min="86" max="86" customWidth="true" hidden="false" style="1" width="8.87" collapsed="true" outlineLevel="0"/>
+    <col min="87" max="87" customWidth="true" hidden="false" style="1" width="12.73" collapsed="true" outlineLevel="0"/>
+    <col min="88" max="88" customWidth="true" hidden="false" style="1" width="11.39" collapsed="true" outlineLevel="0"/>
+    <col min="89" max="89" customWidth="true" hidden="false" style="1" width="11.58" collapsed="true" outlineLevel="0"/>
+    <col min="90" max="90" customWidth="true" hidden="false" style="1" width="11.12" collapsed="true" outlineLevel="0"/>
+    <col min="91" max="91" customWidth="true" hidden="false" style="1" width="12.4" collapsed="true" outlineLevel="0"/>
+    <col min="92" max="92" customWidth="true" hidden="false" style="1" width="12.61" collapsed="true" outlineLevel="0"/>
+    <col min="93" max="93" customWidth="true" hidden="false" style="1" width="9.14" collapsed="true" outlineLevel="0"/>
+    <col min="94" max="94" customWidth="true" hidden="false" style="1" width="11.39" collapsed="true" outlineLevel="0"/>
+    <col min="95" max="95" customWidth="true" hidden="false" style="1" width="12.88" collapsed="true" outlineLevel="0"/>
+    <col min="96" max="96" customWidth="true" hidden="false" style="1" width="11.85" collapsed="true" outlineLevel="0"/>
+    <col min="97" max="97" customWidth="true" hidden="false" style="1" width="12.88" collapsed="true" outlineLevel="0"/>
+    <col min="98" max="98" customWidth="true" hidden="false" style="1" width="13.4" collapsed="true" outlineLevel="0"/>
+    <col min="99" max="99" customWidth="true" hidden="false" style="1" width="12.88" collapsed="true" outlineLevel="0"/>
+    <col min="100" max="100" customWidth="true" hidden="false" style="1" width="12.15" collapsed="true" outlineLevel="0"/>
+    <col min="101" max="101" customWidth="true" hidden="false" style="1" width="12.61" collapsed="true" outlineLevel="0"/>
+    <col min="102" max="102" customWidth="true" hidden="false" style="1" width="13.0" collapsed="true" outlineLevel="0"/>
+    <col min="103" max="103" customWidth="true" hidden="false" style="1" width="11.12" collapsed="true" outlineLevel="0"/>
+    <col min="104" max="104" customWidth="true" hidden="false" style="1" width="10.4" collapsed="true" outlineLevel="0"/>
+    <col min="105" max="105" customWidth="true" hidden="false" style="1" width="10.73" collapsed="true" outlineLevel="0"/>
+    <col min="106" max="106" customWidth="true" hidden="false" style="1" width="11.26" collapsed="true" outlineLevel="0"/>
+    <col min="107" max="107" customWidth="true" hidden="false" style="1" width="10.59" collapsed="true" outlineLevel="0"/>
+    <col min="108" max="108" customWidth="true" hidden="false" style="1" width="11.73" collapsed="true" outlineLevel="0"/>
+    <col min="109" max="109" customWidth="true" hidden="false" style="1" width="11.85" collapsed="true" outlineLevel="0"/>
+    <col min="110" max="110" customWidth="true" hidden="false" style="1" width="10.73" collapsed="true" outlineLevel="0"/>
+    <col min="111" max="113" customWidth="true" hidden="false" style="1" width="12.0" collapsed="true" outlineLevel="0"/>
+    <col min="114" max="114" customWidth="true" hidden="false" style="1" width="12.4" collapsed="true" outlineLevel="0"/>
+    <col min="115" max="115" customWidth="true" hidden="false" style="1" width="11.73" collapsed="true" outlineLevel="0"/>
+    <col min="116" max="122" customWidth="true" hidden="false" style="1" width="12.26" collapsed="true" outlineLevel="0"/>
+    <col min="123" max="123" customWidth="true" hidden="false" style="1" width="13.15" collapsed="true" outlineLevel="0"/>
+    <col min="124" max="124" customWidth="true" hidden="false" style="1" width="11.73" collapsed="true" outlineLevel="0"/>
+    <col min="125" max="16384" customWidth="false" hidden="false" style="3" width="9.0" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="97.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6057,7 +6057,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
+    <col min="16383" max="16384" customWidth="true" hidden="false" style="1" width="11.53" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="128.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
